--- a/Results.xlsx
+++ b/Results.xlsx
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,9 +542,15 @@
       <c r="K3" s="1">
         <v>6</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="1">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N3" s="1">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
@@ -580,9 +586,15 @@
       <c r="K4" s="1">
         <v>7</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="1">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
@@ -618,9 +630,15 @@
       <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="L5" s="1">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
@@ -656,9 +674,15 @@
       <c r="K6" s="1">
         <v>10</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="1">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
@@ -694,9 +718,15 @@
       <c r="K7" s="1">
         <v>9</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="L7" s="1">
+        <v>57</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
@@ -732,9 +762,15 @@
       <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="L8" s="1">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
@@ -770,9 +806,15 @@
       <c r="K9" s="1">
         <v>8</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="L9" s="1">
+        <v>58</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
@@ -808,9 +850,15 @@
       <c r="K10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="1">
+        <v>62</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
@@ -846,9 +894,15 @@
       <c r="K11" s="1">
         <v>5</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="L11" s="1">
+        <v>62</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
@@ -884,9 +938,15 @@
       <c r="K12" s="1">
         <v>4</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="1">
+        <v>58</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
